--- a/Documents/Dime/DIME_ENEM_PROVA.xlsx
+++ b/Documents/Dime/DIME_ENEM_PROVA.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNISG\ProjetoEnem\Enem\Documents\Dime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4851BAE-5818-4BAE-9AA8-65167A99F967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF00D64-7BF0-4C98-A5FA-9D7A8893D3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9D548651-E8C6-4CA8-A1E4-137616BD90DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="8" xr2:uid="{9D548651-E8C6-4CA8-A1E4-137616BD90DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="TP_PRESENCA_CN" sheetId="1" r:id="rId1"/>
-    <sheet name="TP_PRESENCA_CH" sheetId="2" r:id="rId2"/>
-    <sheet name="TP_PRESENCA_LC" sheetId="3" r:id="rId3"/>
-    <sheet name="TP_PRESENCA_MT" sheetId="4" r:id="rId4"/>
-    <sheet name="CO_PROVA_CN" sheetId="5" r:id="rId5"/>
-    <sheet name="CO_PROVA_CH" sheetId="6" r:id="rId6"/>
-    <sheet name="CO_PROVA_LC" sheetId="7" r:id="rId7"/>
-    <sheet name="CO_PROVA_MT" sheetId="8" r:id="rId8"/>
-    <sheet name="TP_LINGUA" sheetId="9" r:id="rId9"/>
+    <sheet name="DIME_PRESENCA_CN" sheetId="1" r:id="rId1"/>
+    <sheet name="DIME_PRESENCA_CH" sheetId="2" r:id="rId2"/>
+    <sheet name="DIME_PRESENCA_LC" sheetId="3" r:id="rId3"/>
+    <sheet name="DIME_PRESENCA_MT" sheetId="4" r:id="rId4"/>
+    <sheet name="DIME_PROVA_CN" sheetId="5" r:id="rId5"/>
+    <sheet name="DIME_PROVA_CH" sheetId="6" r:id="rId6"/>
+    <sheet name="DIME_PROVA_LC" sheetId="7" r:id="rId7"/>
+    <sheet name="DIME_PROVA_MT" sheetId="8" r:id="rId8"/>
+    <sheet name="DIME_LINGUA" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -557,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EDC695-D8BE-4352-B419-23CD234CBBA3}">
   <dimension ref="A10:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1381,7 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5969259A-1736-41CA-B569-C64E8CC40A63}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
